--- a/Input/LUCA Table.xlsx
+++ b/Input/LUCA Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicog\Desktop\Nicolò\GitHub\LUCA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicog\Desktop\Nicolò\GitHub\LUCA\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A16277-CF7E-4052-ADAC-AEEA1FF51F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9058CC1-0C58-4416-A33A-91A70EEEE813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33825" yWindow="4965" windowWidth="27525" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="624" windowWidth="19176" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>natural_gas</t>
   </si>
@@ -87,6 +87,69 @@
   </si>
   <si>
     <t>H2</t>
+  </si>
+  <si>
+    <t>GWP100</t>
+  </si>
+  <si>
+    <t>kg / kg</t>
+  </si>
+  <si>
+    <t>Surface density</t>
+  </si>
+  <si>
+    <t>Sden</t>
+  </si>
+  <si>
+    <t>kg / m**2</t>
+  </si>
+  <si>
+    <t>rail_trans</t>
+  </si>
+  <si>
+    <t>wate_trans</t>
+  </si>
+  <si>
+    <t>land_trans</t>
+  </si>
+  <si>
+    <t>sea_trans</t>
+  </si>
+  <si>
+    <t>Price per unit of distance and mass</t>
+  </si>
+  <si>
+    <t>prDM</t>
+  </si>
+  <si>
+    <t>EUR / tonnes / km</t>
+  </si>
+  <si>
+    <t>Transport, freight train {GLO}</t>
+  </si>
+  <si>
+    <t>Transport, freight, inland waterways, barge {GLO}</t>
+  </si>
+  <si>
+    <t>Transport, freight, light commercial vehicle {GLO}</t>
+  </si>
+  <si>
+    <t>Transport, freight, lorry, unspecified {GLO}</t>
+  </si>
+  <si>
+    <t>Transport, freight, sea, container ship {GLO}</t>
+  </si>
+  <si>
+    <t>Global Warming Potential 100</t>
+  </si>
+  <si>
+    <t>truck_trans</t>
+  </si>
+  <si>
+    <t>Powder coat, steel {GLO}</t>
+  </si>
+  <si>
+    <t>powder</t>
   </si>
 </sst>
 </file>
@@ -439,48 +502,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="3"/>
-    <col min="3" max="3" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
         <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -497,7 +615,7 @@
         <v>141.69999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -514,7 +632,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -532,7 +650,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -547,6 +665,63 @@
         <v>0.55865921787709505</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>29.8</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>0.8</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
     </row>

--- a/Input/LUCA Table.xlsx
+++ b/Input/LUCA Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicog\Desktop\Nicolò\GitHub\LUCA\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\eNextHub\LUCA\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9058CC1-0C58-4416-A33A-91A70EEEE813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0333AD20-2E7E-4C02-BB48-FE8F00478018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="624" windowWidth="19176" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,25 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={18195A07-DB70-4A5C-B794-35F8C121ACB1}</author>
+  </authors>
+  <commentList>
+    <comment ref="K9" authorId="0" shapeId="0" xr:uid="{18195A07-DB70-4A5C-B794-35F8C121ACB1}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    60 micron thickness, 8000 kg/m3 densitity assumed for steel powder coating
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
@@ -146,10 +165,10 @@
     <t>truck_trans</t>
   </si>
   <si>
+    <t>powder</t>
+  </si>
+  <si>
     <t>Powder coat, steel {GLO}</t>
-  </si>
-  <si>
-    <t>powder</t>
   </si>
 </sst>
 </file>
@@ -237,6 +256,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Lorenzo Rinaldi" id="{DCC88CEA-0E29-4EDE-AE8B-1AEF6AEADEDC}" userId="S::lorenzo.rinaldi@enextgen.it::960c1595-8349-47cd-ad6a-ab02c21200f5" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -500,27 +525,36 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="K9" dT="2023-12-21T10:43:58.82" personId="{DCC88CEA-0E29-4EDE-AE8B-1AEF6AEADEDC}" id="{18195A07-DB70-4A5C-B794-35F8C121ACB1}">
+    <text xml:space="preserve">60 micron thickness, 8000 kg/m3 densitity assumed for steel powder coating
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="3"/>
-    <col min="3" max="3" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.77734375" customWidth="1"/>
+    <col min="1" max="1" width="30.3046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.84375" style="3"/>
+    <col min="3" max="3" width="15.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D1" t="s">
         <v>14</v>
       </c>
@@ -543,10 +577,10 @@
         <v>33</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -554,25 +588,25 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D3" t="s">
         <v>1</v>
       </c>
@@ -595,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -615,7 +649,7 @@
         <v>141.69999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -632,7 +666,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -650,7 +684,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -668,7 +702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
@@ -685,7 +719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -696,10 +730,10 @@
         <v>21</v>
       </c>
       <c r="K9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -727,5 +761,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Input/LUCA Table.xlsx
+++ b/Input/LUCA Table.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\eNextHub\LUCA\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0333AD20-2E7E-4C02-BB48-FE8F00478018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30D1D09-F86C-4A8A-A849-B9196A566322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
     <author>tc={18195A07-DB70-4A5C-B794-35F8C121ACB1}</author>
   </authors>
   <commentList>
-    <comment ref="K9" authorId="0" shapeId="0" xr:uid="{18195A07-DB70-4A5C-B794-35F8C121ACB1}">
+    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{18195A07-DB70-4A5C-B794-35F8C121ACB1}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>natural_gas</t>
   </si>
@@ -169,13 +170,31 @@
   </si>
   <si>
     <t>Powder coat, steel {GLO}</t>
+  </si>
+  <si>
+    <t>Transport, freight train {GLO}| market group for transport, freight train</t>
+  </si>
+  <si>
+    <t>rail_trans_market</t>
+  </si>
+  <si>
+    <t>Mounting, surface mount technology, Pb-containing solder {GLO}</t>
+  </si>
+  <si>
+    <t>mounting_surf</t>
+  </si>
+  <si>
+    <t>Wafer, fabricated, for integrated circuit {GLO}</t>
+  </si>
+  <si>
+    <t>wafer_circuit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +206,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -233,12 +259,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -527,7 +564,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="K9" dT="2023-12-21T10:43:58.82" personId="{DCC88CEA-0E29-4EDE-AE8B-1AEF6AEADEDC}" id="{18195A07-DB70-4A5C-B794-35F8C121ACB1}">
+  <threadedComment ref="L9" dT="2023-12-21T10:43:58.82" personId="{DCC88CEA-0E29-4EDE-AE8B-1AEF6AEADEDC}" id="{18195A07-DB70-4A5C-B794-35F8C121ACB1}">
     <text xml:space="preserve">60 micron thickness, 8000 kg/m3 densitity assumed for steel powder coating
 </text>
   </threadedComment>
@@ -536,51 +573,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.3046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.84375" style="3"/>
-    <col min="3" max="3" width="15.84375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.765625" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="3"/>
+    <col min="3" max="3" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="21.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D1" t="s">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -591,22 +645,31 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>35</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>1</v>
       </c>
@@ -617,22 +680,31 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>35</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -649,7 +721,7 @@
         <v>141.69999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -666,7 +738,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -684,7 +756,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -702,7 +774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
@@ -719,7 +791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -729,11 +801,17 @@
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M9" s="6">
+        <v>1</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -743,19 +821,22 @@
       <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <v>0.8</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="6">
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I10">
+      <c r="J10" s="6">
         <v>1</v>
       </c>
-      <c r="J10">
+      <c r="K10" s="6">
         <v>1</v>
       </c>
     </row>
@@ -763,4 +844,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36C4A6A-F18C-47E6-BE5F-0F6ACFEC16A6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Input/LUCA Table.xlsx
+++ b/Input/LUCA Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\eNextHub\LUCA\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30D1D09-F86C-4A8A-A849-B9196A566322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374C6F02-7AEB-4031-91CD-FCC0B70132C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,19 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={18195A07-DB70-4A5C-B794-35F8C121ACB1}</author>
+    <author>tc={6927D7A9-CFCB-4FDA-93C2-C775E8FCF84E}</author>
   </authors>
   <commentList>
     <comment ref="L9" authorId="0" shapeId="0" xr:uid="{18195A07-DB70-4A5C-B794-35F8C121ACB1}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    60 micron thickness, 8000 kg/m3 densitity assumed for steel powder coating
+</t>
+      </text>
+    </comment>
+    <comment ref="M9" authorId="1" shapeId="0" xr:uid="{6927D7A9-CFCB-4FDA-93C2-C775E8FCF84E}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>natural_gas</t>
   </si>
@@ -166,9 +176,6 @@
     <t>truck_trans</t>
   </si>
   <si>
-    <t>powder</t>
-  </si>
-  <si>
     <t>Powder coat, steel {GLO}</t>
   </si>
   <si>
@@ -181,13 +188,37 @@
     <t>Mounting, surface mount technology, Pb-containing solder {GLO}</t>
   </si>
   <si>
-    <t>mounting_surf</t>
-  </si>
-  <si>
     <t>Wafer, fabricated, for integrated circuit {GLO}</t>
   </si>
   <si>
     <t>wafer_circuit</t>
+  </si>
+  <si>
+    <t>Mounting, surface mount technology, Pb-free solder {GLO}</t>
+  </si>
+  <si>
+    <t>mounting_surf_Pb</t>
+  </si>
+  <si>
+    <t>mounting_surf_Pbfree</t>
+  </si>
+  <si>
+    <t>Heat, district or industrial, other than natural gas {GLO}</t>
+  </si>
+  <si>
+    <t>Powder coat, steel {RER}</t>
+  </si>
+  <si>
+    <t>powder_GLO</t>
+  </si>
+  <si>
+    <t>powder_RER</t>
+  </si>
+  <si>
+    <t>Printed wiring board, for surface mounting, Pb containing surface {GLO}</t>
+  </si>
+  <si>
+    <t>wiring_board_Pb</t>
   </si>
 </sst>
 </file>
@@ -568,35 +599,42 @@
     <text xml:space="preserve">60 micron thickness, 8000 kg/m3 densitity assumed for steel powder coating
 </text>
   </threadedComment>
+  <threadedComment ref="M9" dT="2023-12-21T10:43:58.82" personId="{DCC88CEA-0E29-4EDE-AE8B-1AEF6AEADEDC}" id="{6927D7A9-CFCB-4FDA-93C2-C775E8FCF84E}">
+    <text xml:space="preserve">60 micron thickness, 8000 kg/m3 densitity assumed for steel powder coating
+</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="3"/>
-    <col min="3" max="3" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.3046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.84375" style="3"/>
+    <col min="3" max="3" width="15.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.53515625" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="11" width="17.5703125" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="8" max="11" width="17.53515625" customWidth="1"/>
+    <col min="12" max="12" width="11.61328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="21.3046875" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="20.69140625" customWidth="1"/>
+    <col min="18" max="18" width="19.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -610,7 +648,7 @@
         <v>29</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>30</v>
@@ -625,16 +663,28 @@
         <v>33</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="R1" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -645,7 +695,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -660,16 +710,28 @@
         <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
         <v>41</v>
       </c>
-      <c r="N2" t="s">
-        <v>43</v>
+      <c r="Q2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="D3" t="s">
         <v>1</v>
       </c>
@@ -680,7 +742,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -695,16 +757,28 @@
         <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" t="s">
         <v>41</v>
       </c>
-      <c r="N3" t="s">
-        <v>43</v>
+      <c r="Q3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -720,8 +794,11 @@
       <c r="E4">
         <v>141.69999999999999</v>
       </c>
+      <c r="R4">
+        <v>55.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -737,8 +814,11 @@
       <c r="E5">
         <v>0.09</v>
       </c>
+      <c r="R5">
+        <v>0.71599999999999997</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -755,8 +835,11 @@
         <f>E5*E7</f>
         <v>0.09</v>
       </c>
+      <c r="R6">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -773,8 +856,12 @@
       <c r="E7">
         <v>1</v>
       </c>
+      <c r="R7" s="1">
+        <f>R6/R5</f>
+        <v>0.55865921787709505</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
@@ -790,8 +877,11 @@
       <c r="E8">
         <v>8</v>
       </c>
+      <c r="R8">
+        <v>29.8</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -804,14 +894,23 @@
       <c r="L9">
         <v>0.48</v>
       </c>
-      <c r="M9" s="6">
-        <v>1</v>
+      <c r="M9">
+        <v>0.48</v>
       </c>
       <c r="N9" s="6">
         <v>1</v>
       </c>
+      <c r="O9" s="6">
+        <v>1</v>
+      </c>
+      <c r="P9" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -852,7 +951,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Input/LUCA Table.xlsx
+++ b/Input/LUCA Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\eNextHub\LUCA\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374C6F02-7AEB-4031-91CD-FCC0B70132C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBD78FE-0C8D-488F-8F49-CDC96E5AC2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>natural_gas</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>wiring_board_Pb</t>
+  </si>
+  <si>
+    <t>Heat, district or industrial, natural gas {GLO}</t>
   </si>
 </sst>
 </file>
@@ -608,33 +611,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.3046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.84375" style="3"/>
-    <col min="3" max="3" width="15.84375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.69140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.53515625" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="3"/>
+    <col min="3" max="3" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="11" width="17.53515625" customWidth="1"/>
-    <col min="12" max="12" width="11.61328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="21.3046875" customWidth="1"/>
+    <col min="8" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="21.28515625" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="20.69140625" customWidth="1"/>
-    <col min="18" max="18" width="19.69140625" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="18" max="19" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -683,8 +686,11 @@
       <c r="R1" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="S1" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -730,8 +736,11 @@
       <c r="R2" t="s">
         <v>0</v>
       </c>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>1</v>
       </c>
@@ -777,8 +786,11 @@
       <c r="R3" t="s">
         <v>1</v>
       </c>
+      <c r="S3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -797,8 +809,11 @@
       <c r="R4">
         <v>55.5</v>
       </c>
+      <c r="S4">
+        <v>55.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -817,8 +832,11 @@
       <c r="R5">
         <v>0.71599999999999997</v>
       </c>
+      <c r="S5">
+        <v>0.71599999999999997</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -838,8 +856,11 @@
       <c r="R6">
         <v>0.4</v>
       </c>
+      <c r="S6">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -860,8 +881,12 @@
         <f>R6/R5</f>
         <v>0.55865921787709505</v>
       </c>
+      <c r="S7" s="1">
+        <f>S6/S5</f>
+        <v>0.55865921787709505</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
@@ -880,8 +905,11 @@
       <c r="R8">
         <v>29.8</v>
       </c>
+      <c r="S8">
+        <v>29.8</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -910,7 +938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -951,7 +979,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Input/LUCA Table.xlsx
+++ b/Input/LUCA Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\eNextHub\LUCA\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicog\Desktop\Nicolò\GitHub\LUCA\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBD78FE-0C8D-488F-8F49-CDC96E5AC2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EE279A-4F52-414F-982C-44AC442913B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,11 +39,20 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={B2318A00-3BCE-441A-8436-2CE958223374}</author>
     <author>tc={18195A07-DB70-4A5C-B794-35F8C121ACB1}</author>
     <author>tc={6927D7A9-CFCB-4FDA-93C2-C775E8FCF84E}</author>
   </authors>
   <commentList>
-    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{18195A07-DB70-4A5C-B794-35F8C121ACB1}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{B2318A00-3BCE-441A-8436-2CE958223374}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Using 'Density' and 38.1 MJ/mc, the value used by MISE</t>
+      </text>
+    </comment>
+    <comment ref="L9" authorId="1" shapeId="0" xr:uid="{18195A07-DB70-4A5C-B794-35F8C121ACB1}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -52,7 +61,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="M9" authorId="1" shapeId="0" xr:uid="{6927D7A9-CFCB-4FDA-93C2-C775E8FCF84E}">
+    <comment ref="M9" authorId="2" shapeId="0" xr:uid="{6927D7A9-CFCB-4FDA-93C2-C775E8FCF84E}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -228,7 +237,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +259,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -332,6 +347,7 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Lorenzo Rinaldi" id="{DCC88CEA-0E29-4EDE-AE8B-1AEF6AEADEDC}" userId="S::lorenzo.rinaldi@enextgen.it::960c1595-8349-47cd-ad6a-ab02c21200f5" providerId="AD"/>
+  <person displayName="Nicolò Golinucci" id="{3ADF9C4A-1E09-4079-9F34-B331D1189868}" userId="S::nicolo.golinucci@enextgen.it::78589ceb-2175-461f-80ec-32eecf3e7ff4" providerId="AD"/>
 </personList>
 </file>
 
@@ -598,6 +614,9 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D4" dT="2023-12-29T09:48:04.07" personId="{3ADF9C4A-1E09-4079-9F34-B331D1189868}" id="{B2318A00-3BCE-441A-8436-2CE958223374}">
+    <text>Using 'Density' and 38.1 MJ/mc, the value used by MISE</text>
+  </threadedComment>
   <threadedComment ref="L9" dT="2023-12-21T10:43:58.82" personId="{DCC88CEA-0E29-4EDE-AE8B-1AEF6AEADEDC}" id="{18195A07-DB70-4A5C-B794-35F8C121ACB1}">
     <text xml:space="preserve">60 micron thickness, 8000 kg/m3 densitity assumed for steel powder coating
 </text>
@@ -614,30 +633,30 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="3"/>
-    <col min="3" max="3" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="11" width="17.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="21.28515625" customWidth="1"/>
+    <col min="8" max="11" width="17.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="21.33203125" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" customWidth="1"/>
-    <col min="18" max="19" width="21.140625" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" customWidth="1"/>
+    <col min="18" max="19" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -690,7 +709,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -740,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>1</v>
       </c>
@@ -790,7 +809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -801,7 +820,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>55.5</v>
+        <v>53.212290502793302</v>
       </c>
       <c r="E4">
         <v>141.69999999999999</v>
@@ -813,7 +832,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -836,7 +855,7 @@
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -860,7 +879,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -886,7 +905,7 @@
         <v>0.55865921787709505</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
@@ -909,7 +928,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -938,7 +957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -979,7 +998,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Input/LUCA Table.xlsx
+++ b/Input/LUCA Table.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicog\Desktop\Nicolò\GitHub\LUCA\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EE279A-4F52-414F-982C-44AC442913B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A63CCD-D6C6-4C54-8ABC-E6E2596D6D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,8 +39,18 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={B2318A00-3BCE-441A-8436-2CE958223374}</author>
+    <author>tc={D58F12CF-3928-4A4D-BA37-E63F4682AAF3}</author>
     <author>tc={18195A07-DB70-4A5C-B794-35F8C121ACB1}</author>
     <author>tc={6927D7A9-CFCB-4FDA-93C2-C775E8FCF84E}</author>
+    <author>tc={FAD56637-C35B-47AD-B416-A5F865FCDD0E}</author>
+    <author>tc={D1FC9C6F-8524-493D-AB17-781D7963E2BA}</author>
+    <author>tc={94B94756-0C7F-47D0-BB94-4C17E0D9AD7F}</author>
+    <author>tc={22BC1AFC-FFEA-432B-BC6D-F36F36395C78}</author>
+    <author>tc={8A390961-91E0-496A-8F4E-39F686137E75}</author>
+    <author>tc={30394417-884B-42C0-B2E8-43A7A8111D32}</author>
+    <author>tc={DB821DFF-B72D-420F-A7BE-4456BBD05886}</author>
+    <author>tc={5872DEBB-BB77-421C-9287-BEE2203D6927}</author>
+    <author>tc={3E891066-E272-4991-83AD-D4962D158147}</author>
   </authors>
   <commentList>
     <comment ref="D4" authorId="0" shapeId="0" xr:uid="{B2318A00-3BCE-441A-8436-2CE958223374}">
@@ -52,7 +61,33 @@
     Using 'Density' and 38.1 MJ/mc, the value used by MISE</t>
       </text>
     </comment>
-    <comment ref="L9" authorId="1" shapeId="0" xr:uid="{18195A07-DB70-4A5C-B794-35F8C121ACB1}">
+    <comment ref="D5" authorId="1" shapeId="0" xr:uid="{D58F12CF-3928-4A4D-BA37-E63F4682AAF3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Natural Gas Density Calculator | Unitrove 
+15°C, 
+101'325 Pa, 
+96.5% Methane, 
+1.8% Ethane</t>
+      </text>
+    </comment>
+    <comment ref="L9" authorId="2" shapeId="0" xr:uid="{18195A07-DB70-4A5C-B794-35F8C121ACB1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    60 micron thickness, 8000 kg/m3 densitity assumed for steel powder coating
+Reply:
+    (3,3,5,5,1,na)
+Calculated based on literature, (Vionnet, S., Quantis Water Database - Technical Report, 2012). Recalculated from the source file; thickness of the steel sheet of 0.002m and steel density of 7900 kg/m3. The process starts when untreated surface (steel sheet) enters the coating plant. It includes the processes: pre-treatment (cleaning) and coating itself.
+1 m2 * 0.002 m = 0.002 m3
+0.002 m3 * 7900 kg/m3 = 15.8 kg/m2
+Cambia di quasi 3 ordini di grandezza considerare 0.48 o 15.8</t>
+      </text>
+    </comment>
+    <comment ref="M9" authorId="3" shapeId="0" xr:uid="{6927D7A9-CFCB-4FDA-93C2-C775E8FCF84E}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -61,12 +96,79 @@
 </t>
       </text>
     </comment>
-    <comment ref="M9" authorId="2" shapeId="0" xr:uid="{6927D7A9-CFCB-4FDA-93C2-C775E8FCF84E}">
+    <comment ref="N9" authorId="4" shapeId="0" xr:uid="{FAD56637-C35B-47AD-B416-A5F865FCDD0E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ecospold</t>
+      </text>
+    </comment>
+    <comment ref="O9" authorId="5" shapeId="0" xr:uid="{D1FC9C6F-8524-493D-AB17-781D7963E2BA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ecospold</t>
+      </text>
+    </comment>
+    <comment ref="P9" authorId="6" shapeId="0" xr:uid="{94B94756-0C7F-47D0-BB94-4C17E0D9AD7F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ecospold assumendo sia tutto Solder paste</t>
+      </text>
+    </comment>
+    <comment ref="R9" authorId="7" shapeId="0" xr:uid="{22BC1AFC-FFEA-432B-BC6D-F36F36395C78}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ecospold assumendo sia tutto Solder paste</t>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="8" shapeId="0" xr:uid="{8A390961-91E0-496A-8F4E-39F686137E75}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    MODALITÀ  E COSTI DEL TRASPORTO MERCI - Nuzzolo and Comi 2016 - slide 39</t>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="9" shapeId="0" xr:uid="{30394417-884B-42C0-B2E8-43A7A8111D32}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    60 micron thickness, 8000 kg/m3 densitity assumed for steel powder coating
+    MODALITÀ  E COSTI DEL TRASPORTO MERCI - Nuzzolo and Comi 2016 - slide 39
+</t>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="10" shapeId="0" xr:uid="{DB821DFF-B72D-420F-A7BE-4456BBD05886}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    MODALITÀ  E COSTI DEL TRASPORTO MERCI - Nuzzolo and Comi 2016 - slide 39
+</t>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="11" shapeId="0" xr:uid="{5872DEBB-BB77-421C-9287-BEE2203D6927}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    MODALITÀ  E COSTI DEL TRASPORTO MERCI - Nuzzolo and Comi 2016 - slide 39
+</t>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="12" shapeId="0" xr:uid="{3E891066-E272-4991-83AD-D4962D158147}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    MODALITÀ  E COSTI DEL TRASPORTO MERCI - Nuzzolo and Comi 2016 - slide 39
 </t>
       </text>
     </comment>
@@ -75,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>natural_gas</t>
   </si>
@@ -231,13 +333,16 @@
   </si>
   <si>
     <t>Heat, district or industrial, natural gas {GLO}</t>
+  </si>
+  <si>
+    <t>Printed wiring board, for surface mounting, Pb free surface {GLO}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,12 +364,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -308,7 +407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
@@ -326,6 +425,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -617,12 +717,63 @@
   <threadedComment ref="D4" dT="2023-12-29T09:48:04.07" personId="{3ADF9C4A-1E09-4079-9F34-B331D1189868}" id="{B2318A00-3BCE-441A-8436-2CE958223374}">
     <text>Using 'Density' and 38.1 MJ/mc, the value used by MISE</text>
   </threadedComment>
+  <threadedComment ref="D5" dT="2023-12-29T11:59:36.13" personId="{3ADF9C4A-1E09-4079-9F34-B331D1189868}" id="{D58F12CF-3928-4A4D-BA37-E63F4682AAF3}">
+    <text>Natural Gas Density Calculator | Unitrove 
+15°C, 
+101'325 Pa, 
+96.5% Methane, 
+1.8% Ethane</text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>330842738</xltc2:checksum>
+        <xltc2:hyperlink startIndex="0" length="41" url="https://www.unitrove.com/engineering/tools/gas/natural-gas-density"/>
+      </x:ext>
+    </extLst>
+  </threadedComment>
   <threadedComment ref="L9" dT="2023-12-21T10:43:58.82" personId="{DCC88CEA-0E29-4EDE-AE8B-1AEF6AEADEDC}" id="{18195A07-DB70-4A5C-B794-35F8C121ACB1}">
     <text xml:space="preserve">60 micron thickness, 8000 kg/m3 densitity assumed for steel powder coating
 </text>
   </threadedComment>
+  <threadedComment ref="L9" dT="2024-01-02T11:40:42.19" personId="{3ADF9C4A-1E09-4079-9F34-B331D1189868}" id="{AEFA2C4B-AAF2-4EB1-B57D-C187D83491F3}" parentId="{18195A07-DB70-4A5C-B794-35F8C121ACB1}">
+    <text>(3,3,5,5,1,na)
+Calculated based on literature, (Vionnet, S., Quantis Water Database - Technical Report, 2012). Recalculated from the source file; thickness of the steel sheet of 0.002m and steel density of 7900 kg/m3. The process starts when untreated surface (steel sheet) enters the coating plant. It includes the processes: pre-treatment (cleaning) and coating itself.
+1 m2 * 0.002 m = 0.002 m3
+0.002 m3 * 7900 kg/m3 = 15.8 kg/m2
+Cambia di quasi 3 ordini di grandezza considerare 0.48 o 15.8</text>
+  </threadedComment>
   <threadedComment ref="M9" dT="2023-12-21T10:43:58.82" personId="{DCC88CEA-0E29-4EDE-AE8B-1AEF6AEADEDC}" id="{6927D7A9-CFCB-4FDA-93C2-C775E8FCF84E}">
     <text xml:space="preserve">60 micron thickness, 8000 kg/m3 densitity assumed for steel powder coating
+</text>
+  </threadedComment>
+  <threadedComment ref="N9" dT="2024-01-02T11:18:01.71" personId="{3ADF9C4A-1E09-4079-9F34-B331D1189868}" id="{FAD56637-C35B-47AD-B416-A5F865FCDD0E}">
+    <text>Ecospold</text>
+  </threadedComment>
+  <threadedComment ref="O9" dT="2024-01-02T11:18:01.71" personId="{3ADF9C4A-1E09-4079-9F34-B331D1189868}" id="{D1FC9C6F-8524-493D-AB17-781D7963E2BA}">
+    <text>Ecospold</text>
+  </threadedComment>
+  <threadedComment ref="P9" dT="2024-01-02T11:26:05.22" personId="{3ADF9C4A-1E09-4079-9F34-B331D1189868}" id="{94B94756-0C7F-47D0-BB94-4C17E0D9AD7F}">
+    <text>Ecospold assumendo sia tutto Solder paste</text>
+  </threadedComment>
+  <threadedComment ref="R9" dT="2024-01-02T11:26:11.34" personId="{3ADF9C4A-1E09-4079-9F34-B331D1189868}" id="{22BC1AFC-FFEA-432B-BC6D-F36F36395C78}">
+    <text>Ecospold assumendo sia tutto Solder paste</text>
+  </threadedComment>
+  <threadedComment ref="F10" dT="2024-01-02T11:49:31.47" personId="{3ADF9C4A-1E09-4079-9F34-B331D1189868}" id="{8A390961-91E0-496A-8F4E-39F686137E75}">
+    <text>MODALITÀ  E COSTI DEL TRASPORTO MERCI - Nuzzolo and Comi 2016 - slide 39</text>
+  </threadedComment>
+  <threadedComment ref="G10" dT="2024-01-02T11:49:36.62" personId="{3ADF9C4A-1E09-4079-9F34-B331D1189868}" id="{30394417-884B-42C0-B2E8-43A7A8111D32}">
+    <text xml:space="preserve">MODALITÀ  E COSTI DEL TRASPORTO MERCI - Nuzzolo and Comi 2016 - slide 39
+</text>
+  </threadedComment>
+  <threadedComment ref="H10" dT="2024-01-02T11:49:40.72" personId="{3ADF9C4A-1E09-4079-9F34-B331D1189868}" id="{DB821DFF-B72D-420F-A7BE-4456BBD05886}">
+    <text xml:space="preserve">MODALITÀ  E COSTI DEL TRASPORTO MERCI - Nuzzolo and Comi 2016 - slide 39
+</text>
+  </threadedComment>
+  <threadedComment ref="I10" dT="2024-01-02T11:49:44.26" personId="{3ADF9C4A-1E09-4079-9F34-B331D1189868}" id="{5872DEBB-BB77-421C-9287-BEE2203D6927}">
+    <text xml:space="preserve">MODALITÀ  E COSTI DEL TRASPORTO MERCI - Nuzzolo and Comi 2016 - slide 39
+</text>
+  </threadedComment>
+  <threadedComment ref="J10" dT="2024-01-02T11:49:48.09" personId="{3ADF9C4A-1E09-4079-9F34-B331D1189868}" id="{3E891066-E272-4991-83AD-D4962D158147}">
+    <text xml:space="preserve">MODALITÀ  E COSTI DEL TRASPORTO MERCI - Nuzzolo and Comi 2016 - slide 39
 </text>
   </threadedComment>
 </ThreadedComments>
@@ -630,13 +781,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,13 +801,13 @@
     <col min="8" max="11" width="17.5546875" customWidth="1"/>
     <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="21.33203125" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" customWidth="1"/>
-    <col min="18" max="19" width="21.109375" customWidth="1"/>
+    <col min="14" max="16" width="21.33203125" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" customWidth="1"/>
+    <col min="19" max="20" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -694,22 +845,25 @@
         <v>49</v>
       </c>
       <c r="O1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -744,22 +898,25 @@
         <v>50</v>
       </c>
       <c r="O2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
         <v>43</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>44</v>
-      </c>
-      <c r="R2" t="s">
-        <v>0</v>
       </c>
       <c r="S2" t="s">
         <v>0</v>
       </c>
+      <c r="T2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>1</v>
       </c>
@@ -794,22 +951,25 @@
         <v>50</v>
       </c>
       <c r="O3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" t="s">
         <v>43</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>44</v>
-      </c>
-      <c r="R3" t="s">
-        <v>1</v>
       </c>
       <c r="S3" t="s">
         <v>1</v>
       </c>
+      <c r="T3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -819,20 +979,20 @@
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="8">
         <v>53.212290502793302</v>
       </c>
       <c r="E4">
         <v>141.69999999999999</v>
       </c>
-      <c r="R4">
-        <v>55.5</v>
-      </c>
-      <c r="S4">
-        <v>55.5</v>
+      <c r="S4" s="8">
+        <v>53.212290502793302</v>
+      </c>
+      <c r="T4" s="8">
+        <v>53.212290502793302</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -843,19 +1003,19 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>0.71599999999999997</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="E5">
         <v>0.09</v>
       </c>
-      <c r="R5">
-        <v>0.71599999999999997</v>
-      </c>
       <c r="S5">
-        <v>0.71599999999999997</v>
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="T5">
+        <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -872,14 +1032,14 @@
         <f>E5*E7</f>
         <v>0.09</v>
       </c>
-      <c r="R6">
-        <v>0.4</v>
-      </c>
       <c r="S6">
         <v>0.4</v>
       </c>
+      <c r="T6">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -891,21 +1051,21 @@
       </c>
       <c r="D7" s="1">
         <f>D6/D5</f>
-        <v>0.55865921787709505</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="R7" s="1">
-        <f>R6/R5</f>
-        <v>0.55865921787709505</v>
-      </c>
       <c r="S7" s="1">
         <f>S6/S5</f>
-        <v>0.55865921787709505</v>
+        <v>0.5617977528089888</v>
+      </c>
+      <c r="T7" s="1">
+        <f>T6/T5</f>
+        <v>0.5617977528089888</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
@@ -921,14 +1081,14 @@
       <c r="E8">
         <v>8</v>
       </c>
-      <c r="R8">
-        <v>29.8</v>
-      </c>
       <c r="S8">
         <v>29.8</v>
       </c>
+      <c r="T8">
+        <v>29.8</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -945,19 +1105,19 @@
         <v>0.48</v>
       </c>
       <c r="N9" s="6">
-        <v>1</v>
+        <v>3.26</v>
       </c>
       <c r="O9" s="6">
-        <v>1</v>
+        <v>3.26</v>
       </c>
       <c r="P9" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>1</v>
+        <v>8.0644999999999994E-2</v>
+      </c>
+      <c r="R9" s="6">
+        <v>8.0644999999999994E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -990,16 +1150,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36C4A6A-F18C-47E6-BE5F-0F6ACFEC16A6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Input/LUCA Table.xlsx
+++ b/Input/LUCA Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicog\Desktop\Nicolò\GitHub\LUCA\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A63CCD-D6C6-4C54-8ABC-E6E2596D6D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B3E7E6-6E38-489F-A59E-5B10338AD1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,6 +45,7 @@
     <author>tc={FAD56637-C35B-47AD-B416-A5F865FCDD0E}</author>
     <author>tc={D1FC9C6F-8524-493D-AB17-781D7963E2BA}</author>
     <author>tc={94B94756-0C7F-47D0-BB94-4C17E0D9AD7F}</author>
+    <author>tc={E7DA7C08-F459-46C4-88BF-FD6DB088AA9B}</author>
     <author>tc={22BC1AFC-FFEA-432B-BC6D-F36F36395C78}</author>
     <author>tc={8A390961-91E0-496A-8F4E-39F686137E75}</author>
     <author>tc={30394417-884B-42C0-B2E8-43A7A8111D32}</author>
@@ -120,15 +121,23 @@
     Ecospold assumendo sia tutto Solder paste</t>
       </text>
     </comment>
-    <comment ref="R9" authorId="7" shapeId="0" xr:uid="{22BC1AFC-FFEA-432B-BC6D-F36F36395C78}">
+    <comment ref="Q9" authorId="7" shapeId="0" xr:uid="{E7DA7C08-F459-46C4-88BF-FD6DB088AA9B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
+    Da ecospold</t>
+      </text>
+    </comment>
+    <comment ref="R9" authorId="8" shapeId="0" xr:uid="{22BC1AFC-FFEA-432B-BC6D-F36F36395C78}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Ecospold assumendo sia tutto Solder paste</t>
       </text>
     </comment>
-    <comment ref="F10" authorId="8" shapeId="0" xr:uid="{8A390961-91E0-496A-8F4E-39F686137E75}">
+    <comment ref="F10" authorId="9" shapeId="0" xr:uid="{8A390961-91E0-496A-8F4E-39F686137E75}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -136,7 +145,7 @@
     MODALITÀ  E COSTI DEL TRASPORTO MERCI - Nuzzolo and Comi 2016 - slide 39</t>
       </text>
     </comment>
-    <comment ref="G10" authorId="9" shapeId="0" xr:uid="{30394417-884B-42C0-B2E8-43A7A8111D32}">
+    <comment ref="G10" authorId="10" shapeId="0" xr:uid="{30394417-884B-42C0-B2E8-43A7A8111D32}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -145,7 +154,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="H10" authorId="10" shapeId="0" xr:uid="{DB821DFF-B72D-420F-A7BE-4456BBD05886}">
+    <comment ref="H10" authorId="11" shapeId="0" xr:uid="{DB821DFF-B72D-420F-A7BE-4456BBD05886}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -154,7 +163,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="I10" authorId="11" shapeId="0" xr:uid="{5872DEBB-BB77-421C-9287-BEE2203D6927}">
+    <comment ref="I10" authorId="12" shapeId="0" xr:uid="{5872DEBB-BB77-421C-9287-BEE2203D6927}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -163,7 +172,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="J10" authorId="12" shapeId="0" xr:uid="{3E891066-E272-4991-83AD-D4962D158147}">
+    <comment ref="J10" authorId="13" shapeId="0" xr:uid="{3E891066-E272-4991-83AD-D4962D158147}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -342,7 +351,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +373,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -754,6 +769,9 @@
   <threadedComment ref="P9" dT="2024-01-02T11:26:05.22" personId="{3ADF9C4A-1E09-4079-9F34-B331D1189868}" id="{94B94756-0C7F-47D0-BB94-4C17E0D9AD7F}">
     <text>Ecospold assumendo sia tutto Solder paste</text>
   </threadedComment>
+  <threadedComment ref="Q9" dT="2024-01-02T13:09:42.06" personId="{3ADF9C4A-1E09-4079-9F34-B331D1189868}" id="{E7DA7C08-F459-46C4-88BF-FD6DB088AA9B}">
+    <text>Da ecospold</text>
+  </threadedComment>
   <threadedComment ref="R9" dT="2024-01-02T11:26:11.34" personId="{3ADF9C4A-1E09-4079-9F34-B331D1189868}" id="{22BC1AFC-FFEA-432B-BC6D-F36F36395C78}">
     <text>Ecospold assumendo sia tutto Solder paste</text>
   </threadedComment>
@@ -784,10 +802,10 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1113,6 +1131,9 @@
       <c r="P9" s="6">
         <v>8.0644999999999994E-2</v>
       </c>
+      <c r="Q9" s="6">
+        <v>0.7</v>
+      </c>
       <c r="R9" s="6">
         <v>8.0644999999999994E-2</v>
       </c>
